--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/GOSlim Terms by PANTHER.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/GOSlim Terms by PANTHER.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="125">
   <si>
     <t>GO term</t>
   </si>
@@ -21,138 +21,321 @@
     <t>Frequency</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>GO:0051179</t>
+  </si>
+  <si>
+    <t>GO:0050789</t>
+  </si>
+  <si>
+    <t>GO:0019538</t>
+  </si>
+  <si>
+    <t>GO:0050896</t>
+  </si>
+  <si>
+    <t>GO:0006629</t>
+  </si>
+  <si>
+    <t>GO:0009987</t>
+  </si>
+  <si>
+    <t>GO:0065007</t>
+  </si>
+  <si>
+    <t>GO:0008152</t>
+  </si>
+  <si>
+    <t>GO:0007049</t>
+  </si>
+  <si>
+    <t>GO:0007154</t>
+  </si>
+  <si>
+    <t>GO:0006520</t>
+  </si>
+  <si>
+    <t>GO:0007165</t>
+  </si>
+  <si>
+    <t>GO:0071840</t>
+  </si>
+  <si>
+    <t>GO:0002376</t>
+  </si>
+  <si>
+    <t>GO:0006468</t>
+  </si>
+  <si>
+    <t>GO:0006139</t>
+  </si>
+  <si>
+    <t>GO:0006351</t>
+  </si>
+  <si>
+    <t>GO:0005509</t>
+  </si>
+  <si>
+    <t>GO:0005975</t>
+  </si>
+  <si>
+    <t>GO:0044464</t>
+  </si>
+  <si>
+    <t>GO:0003676</t>
+  </si>
+  <si>
+    <t>GO:0006281</t>
+  </si>
+  <si>
+    <t>GO:0019882</t>
+  </si>
+  <si>
+    <t>GO:0005976</t>
+  </si>
+  <si>
+    <t>GO:0022904</t>
+  </si>
+  <si>
+    <t>GO:0006206</t>
+  </si>
+  <si>
+    <t>GO:0006807</t>
+  </si>
+  <si>
+    <t>GO:0006810</t>
+  </si>
+  <si>
+    <t>GO:0007398</t>
+  </si>
+  <si>
+    <t>GO:0008219</t>
+  </si>
+  <si>
+    <t>GO:0009058</t>
+  </si>
+  <si>
+    <t>GO:0048731</t>
+  </si>
+  <si>
+    <t>GO:0004872</t>
+  </si>
+  <si>
+    <t>GO:0005488</t>
+  </si>
+  <si>
+    <t>GO:0005515</t>
+  </si>
+  <si>
+    <t>GO:0005576</t>
+  </si>
+  <si>
+    <t>GO:0006144</t>
+  </si>
+  <si>
+    <t>GO:0006790</t>
+  </si>
+  <si>
+    <t>GO:0006917</t>
+  </si>
+  <si>
+    <t>GO:0007498</t>
+  </si>
+  <si>
+    <t>GO:0008015</t>
+  </si>
+  <si>
+    <t>GO:0009063</t>
+  </si>
+  <si>
+    <t>GO:0000165</t>
+  </si>
+  <si>
+    <t>GO:0005198</t>
+  </si>
+  <si>
+    <t>GO:0005200</t>
+  </si>
+  <si>
+    <t>GO:0005544</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>GO:0005996</t>
+  </si>
+  <si>
+    <t>GO:0006378</t>
+  </si>
+  <si>
+    <t>GO:0006397</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -168,214 +351,43 @@
     <t>NA.4</t>
   </si>
   <si>
-    <t>NA.5</t>
-  </si>
-  <si>
-    <t>GO:0051179</t>
-  </si>
-  <si>
-    <t>GO:0050896</t>
-  </si>
-  <si>
-    <t>GO:0050789</t>
-  </si>
-  <si>
-    <t>GO:0019538</t>
-  </si>
-  <si>
-    <t>GO:0009987</t>
-  </si>
-  <si>
-    <t>GO:0065007</t>
-  </si>
-  <si>
-    <t>GO:0006629</t>
-  </si>
-  <si>
-    <t>GO:0007154</t>
-  </si>
-  <si>
-    <t>GO:0002376</t>
-  </si>
-  <si>
-    <t>GO:0007165</t>
-  </si>
-  <si>
-    <t>GO:0006520</t>
-  </si>
-  <si>
-    <t>GO:0007049</t>
-  </si>
-  <si>
-    <t>GO:0008152</t>
-  </si>
-  <si>
-    <t>GO:0071840</t>
-  </si>
-  <si>
-    <t>GO:0005509</t>
-  </si>
-  <si>
-    <t>GO:0006139</t>
-  </si>
-  <si>
-    <t>GO:0006468</t>
-  </si>
-  <si>
-    <t>GO:0019882</t>
-  </si>
-  <si>
-    <t>GO:0003676</t>
-  </si>
-  <si>
-    <t>GO:0005515</t>
-  </si>
-  <si>
-    <t>GO:0005576</t>
-  </si>
-  <si>
-    <t>GO:0005976</t>
-  </si>
-  <si>
-    <t>GO:0006351</t>
-  </si>
-  <si>
-    <t>GO:0006917</t>
-  </si>
-  <si>
-    <t>GO:0008219</t>
-  </si>
-  <si>
-    <t>GO:0044464</t>
-  </si>
-  <si>
-    <t>GO:0048731</t>
-  </si>
-  <si>
-    <t>GO:0000165</t>
-  </si>
-  <si>
-    <t>GO:0004872</t>
-  </si>
-  <si>
-    <t>GO:0005975</t>
-  </si>
-  <si>
-    <t>GO:0006144</t>
-  </si>
-  <si>
-    <t>GO:0006206</t>
-  </si>
-  <si>
-    <t>GO:0006281</t>
+    <t>GO:0009056</t>
+  </si>
+  <si>
+    <t>GO:0032501</t>
+  </si>
+  <si>
+    <t>GO:0044085</t>
+  </si>
+  <si>
+    <t>GO:0009110</t>
+  </si>
+  <si>
+    <t>GO:0016070</t>
+  </si>
+  <si>
+    <t>GO:0006418</t>
+  </si>
+  <si>
+    <t>GO:0006486</t>
+  </si>
+  <si>
+    <t>GO:0006732</t>
   </si>
   <si>
     <t>GO:0006778</t>
   </si>
   <si>
-    <t>GO:0006790</t>
-  </si>
-  <si>
-    <t>GO:0007398</t>
-  </si>
-  <si>
-    <t>GO:0007498</t>
-  </si>
-  <si>
-    <t>GO:0008015</t>
-  </si>
-  <si>
-    <t>GO:0009056</t>
-  </si>
-  <si>
-    <t>GO:0009058</t>
-  </si>
-  <si>
-    <t>GO:0009063</t>
-  </si>
-  <si>
-    <t>GO:0016020</t>
-  </si>
-  <si>
-    <t>GO:0022904</t>
-  </si>
-  <si>
-    <t>GO:0044238</t>
-  </si>
-  <si>
-    <t>NA.6</t>
-  </si>
-  <si>
-    <t>NA.7</t>
-  </si>
-  <si>
-    <t>NA.8</t>
-  </si>
-  <si>
-    <t>NA.9</t>
-  </si>
-  <si>
-    <t>NA.10</t>
-  </si>
-  <si>
-    <t>NA.11</t>
-  </si>
-  <si>
-    <t>NA.12</t>
-  </si>
-  <si>
-    <t>NA.13</t>
-  </si>
-  <si>
-    <t>NA.14</t>
-  </si>
-  <si>
-    <t>NA.15</t>
-  </si>
-  <si>
-    <t>NA.16</t>
-  </si>
-  <si>
-    <t>NA.17</t>
-  </si>
-  <si>
-    <t>NA.18</t>
-  </si>
-  <si>
-    <t>NA.19</t>
-  </si>
-  <si>
-    <t>NA.20</t>
-  </si>
-  <si>
-    <t>NA.21</t>
-  </si>
-  <si>
-    <t>NA.22</t>
-  </si>
-  <si>
-    <t>NA.23</t>
-  </si>
-  <si>
-    <t>NA.24</t>
-  </si>
-  <si>
-    <t>NA.25</t>
-  </si>
-  <si>
-    <t>NA.26</t>
-  </si>
-  <si>
-    <t>NA.27</t>
-  </si>
-  <si>
-    <t>GO:0032501</t>
-  </si>
-  <si>
-    <t>GO:0009110</t>
+    <t>GO:0007067</t>
+  </si>
+  <si>
+    <t>GO:0007155</t>
   </si>
   <si>
     <t>GO:0031124</t>
+  </si>
+  <si>
+    <t>GO:0043234</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>48.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +466,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +477,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +488,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +499,7 @@
         <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +510,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="8">
@@ -509,7 +521,7 @@
         <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>16.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +532,7 @@
         <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="10">
@@ -531,7 +543,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +554,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
@@ -553,7 +565,7 @@
         <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
@@ -564,7 +576,7 @@
         <v>63</v>
       </c>
       <c r="C13" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +587,7 @@
         <v>64</v>
       </c>
       <c r="C14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
@@ -586,7 +598,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
@@ -597,7 +609,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
@@ -608,7 +620,7 @@
         <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
@@ -619,7 +631,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
@@ -630,7 +642,7 @@
         <v>69</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="20">
@@ -641,7 +653,7 @@
         <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +664,7 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
@@ -663,7 +675,7 @@
         <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -674,7 +686,7 @@
         <v>73</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -685,7 +697,7 @@
         <v>74</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -696,7 +708,7 @@
         <v>75</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -707,7 +719,7 @@
         <v>76</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
@@ -718,7 +730,7 @@
         <v>77</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
@@ -729,7 +741,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
@@ -740,7 +752,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
@@ -751,7 +763,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -762,7 +774,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -773,7 +785,7 @@
         <v>82</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
@@ -784,7 +796,7 @@
         <v>83</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
@@ -795,7 +807,7 @@
         <v>84</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -806,7 +818,7 @@
         <v>85</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -817,7 +829,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -828,7 +840,7 @@
         <v>87</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -839,7 +851,7 @@
         <v>88</v>
       </c>
       <c r="C38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -850,7 +862,7 @@
         <v>89</v>
       </c>
       <c r="C39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -861,7 +873,7 @@
         <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -872,7 +884,7 @@
         <v>91</v>
       </c>
       <c r="C41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -883,7 +895,7 @@
         <v>92</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -894,7 +906,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -923,66 +935,66 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C46" t="e">
-        <v>#N/A</v>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C47" t="e">
-        <v>#N/A</v>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C48" t="e">
-        <v>#N/A</v>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C49" t="e">
-        <v>#N/A</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C50" t="e">
-        <v>#N/A</v>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C51" t="e">
-        <v>#N/A</v>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1009,502 +1021,502 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>13.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C24" t="e">
-        <v>#N/A</v>
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C26" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C27" t="e">
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C28" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C29" t="e">
-        <v>#N/A</v>
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C30" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C31" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C32" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C34" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C35" t="e">
-        <v>#N/A</v>
+      <c r="C35" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C36" t="e">
-        <v>#N/A</v>
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C37" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C38" t="e">
-        <v>#N/A</v>
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C39" t="e">
-        <v>#N/A</v>
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C40" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C41" t="e">
-        <v>#N/A</v>
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C42" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C43" t="e">
-        <v>#N/A</v>
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C44" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C45" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C46" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B47" t="e">
         <v>#N/A</v>
@@ -1515,7 +1527,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B48" t="e">
         <v>#N/A</v>
@@ -1526,7 +1538,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B49" t="e">
         <v>#N/A</v>
@@ -1537,7 +1549,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B50" t="e">
         <v>#N/A</v>
@@ -1548,7 +1560,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B51" t="e">
         <v>#N/A</v>

--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/GOSlim Terms by PANTHER.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/GOSlim Terms by PANTHER.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
   <si>
     <t>GO term</t>
   </si>
@@ -21,16 +21,40 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>27</t>
@@ -39,355 +63,319 @@
     <t>44</t>
   </si>
   <si>
-    <t>58</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NA.1</t>
+  </si>
+  <si>
+    <t>NA.2</t>
+  </si>
+  <si>
+    <t>NA.3</t>
+  </si>
+  <si>
+    <t>NA.4</t>
+  </si>
+  <si>
+    <t>NA.5</t>
   </si>
   <si>
     <t>GO:0051179</t>
   </si>
   <si>
+    <t>GO:0050896</t>
+  </si>
+  <si>
     <t>GO:0050789</t>
   </si>
   <si>
     <t>GO:0019538</t>
   </si>
   <si>
-    <t>GO:0050896</t>
+    <t>GO:0009987</t>
+  </si>
+  <si>
+    <t>GO:0065007</t>
   </si>
   <si>
     <t>GO:0006629</t>
   </si>
   <si>
-    <t>GO:0009987</t>
-  </si>
-  <si>
-    <t>GO:0065007</t>
+    <t>GO:0007154</t>
+  </si>
+  <si>
+    <t>GO:0002376</t>
+  </si>
+  <si>
+    <t>GO:0007165</t>
+  </si>
+  <si>
+    <t>GO:0006520</t>
+  </si>
+  <si>
+    <t>GO:0007049</t>
   </si>
   <si>
     <t>GO:0008152</t>
   </si>
   <si>
-    <t>GO:0007049</t>
-  </si>
-  <si>
-    <t>GO:0007154</t>
-  </si>
-  <si>
-    <t>GO:0006520</t>
-  </si>
-  <si>
-    <t>GO:0007165</t>
-  </si>
-  <si>
     <t>GO:0071840</t>
   </si>
   <si>
-    <t>GO:0002376</t>
+    <t>GO:0005509</t>
+  </si>
+  <si>
+    <t>GO:0006139</t>
   </si>
   <si>
     <t>GO:0006468</t>
   </si>
   <si>
-    <t>GO:0006139</t>
+    <t>GO:0019882</t>
+  </si>
+  <si>
+    <t>GO:0003676</t>
+  </si>
+  <si>
+    <t>GO:0005515</t>
+  </si>
+  <si>
+    <t>GO:0005576</t>
+  </si>
+  <si>
+    <t>GO:0005976</t>
   </si>
   <si>
     <t>GO:0006351</t>
   </si>
   <si>
-    <t>GO:0005509</t>
+    <t>GO:0006917</t>
+  </si>
+  <si>
+    <t>GO:0008219</t>
+  </si>
+  <si>
+    <t>GO:0044464</t>
+  </si>
+  <si>
+    <t>GO:0048731</t>
+  </si>
+  <si>
+    <t>GO:0000165</t>
+  </si>
+  <si>
+    <t>GO:0004872</t>
   </si>
   <si>
     <t>GO:0005975</t>
   </si>
   <si>
-    <t>GO:0044464</t>
-  </si>
-  <si>
-    <t>GO:0003676</t>
+    <t>GO:0006144</t>
+  </si>
+  <si>
+    <t>GO:0006206</t>
   </si>
   <si>
     <t>GO:0006281</t>
   </si>
   <si>
-    <t>GO:0019882</t>
-  </si>
-  <si>
-    <t>GO:0005976</t>
+    <t>GO:0006778</t>
+  </si>
+  <si>
+    <t>GO:0006790</t>
+  </si>
+  <si>
+    <t>GO:0007398</t>
+  </si>
+  <si>
+    <t>GO:0007498</t>
+  </si>
+  <si>
+    <t>GO:0008015</t>
+  </si>
+  <si>
+    <t>GO:0009056</t>
+  </si>
+  <si>
+    <t>GO:0009058</t>
+  </si>
+  <si>
+    <t>GO:0009063</t>
+  </si>
+  <si>
+    <t>GO:0016020</t>
   </si>
   <si>
     <t>GO:0022904</t>
   </si>
   <si>
-    <t>GO:0006206</t>
-  </si>
-  <si>
-    <t>GO:0006807</t>
-  </si>
-  <si>
-    <t>GO:0006810</t>
-  </si>
-  <si>
-    <t>GO:0007398</t>
-  </si>
-  <si>
-    <t>GO:0008219</t>
-  </si>
-  <si>
-    <t>GO:0009058</t>
-  </si>
-  <si>
-    <t>GO:0048731</t>
-  </si>
-  <si>
-    <t>GO:0004872</t>
-  </si>
-  <si>
-    <t>GO:0005488</t>
-  </si>
-  <si>
-    <t>GO:0005515</t>
-  </si>
-  <si>
-    <t>GO:0005576</t>
-  </si>
-  <si>
-    <t>GO:0006144</t>
-  </si>
-  <si>
-    <t>GO:0006790</t>
-  </si>
-  <si>
-    <t>GO:0006917</t>
-  </si>
-  <si>
-    <t>GO:0007498</t>
-  </si>
-  <si>
-    <t>GO:0008015</t>
-  </si>
-  <si>
-    <t>GO:0009063</t>
-  </si>
-  <si>
-    <t>GO:0000165</t>
-  </si>
-  <si>
-    <t>GO:0005198</t>
-  </si>
-  <si>
-    <t>GO:0005200</t>
-  </si>
-  <si>
-    <t>GO:0005544</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>GO:0005996</t>
-  </si>
-  <si>
-    <t>GO:0006378</t>
-  </si>
-  <si>
-    <t>GO:0006397</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>NA.1</t>
-  </si>
-  <si>
-    <t>NA.2</t>
-  </si>
-  <si>
-    <t>NA.3</t>
-  </si>
-  <si>
-    <t>NA.4</t>
-  </si>
-  <si>
-    <t>GO:0009056</t>
+    <t>GO:0044238</t>
+  </si>
+  <si>
+    <t>NA.6</t>
+  </si>
+  <si>
+    <t>NA.7</t>
+  </si>
+  <si>
+    <t>NA.8</t>
+  </si>
+  <si>
+    <t>NA.9</t>
+  </si>
+  <si>
+    <t>NA.10</t>
+  </si>
+  <si>
+    <t>NA.11</t>
+  </si>
+  <si>
+    <t>NA.12</t>
+  </si>
+  <si>
+    <t>NA.13</t>
+  </si>
+  <si>
+    <t>NA.14</t>
+  </si>
+  <si>
+    <t>NA.15</t>
+  </si>
+  <si>
+    <t>NA.16</t>
+  </si>
+  <si>
+    <t>NA.17</t>
+  </si>
+  <si>
+    <t>NA.18</t>
+  </si>
+  <si>
+    <t>NA.19</t>
+  </si>
+  <si>
+    <t>NA.20</t>
+  </si>
+  <si>
+    <t>NA.21</t>
+  </si>
+  <si>
+    <t>NA.22</t>
+  </si>
+  <si>
+    <t>NA.23</t>
+  </si>
+  <si>
+    <t>NA.24</t>
+  </si>
+  <si>
+    <t>NA.25</t>
+  </si>
+  <si>
+    <t>NA.26</t>
+  </si>
+  <si>
+    <t>NA.27</t>
   </si>
   <si>
     <t>GO:0032501</t>
   </si>
   <si>
-    <t>GO:0044085</t>
-  </si>
-  <si>
     <t>GO:0009110</t>
   </si>
   <si>
-    <t>GO:0016070</t>
-  </si>
-  <si>
-    <t>GO:0006418</t>
-  </si>
-  <si>
-    <t>GO:0006486</t>
-  </si>
-  <si>
-    <t>GO:0006732</t>
-  </si>
-  <si>
-    <t>GO:0006778</t>
-  </si>
-  <si>
-    <t>GO:0007067</t>
-  </si>
-  <si>
-    <t>GO:0007155</t>
-  </si>
-  <si>
     <t>GO:0031124</t>
-  </si>
-  <si>
-    <t>GO:0043234</t>
   </si>
 </sst>
 </file>
@@ -455,7 +443,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>122.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +454,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>75.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +465,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>58.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +476,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>51.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +487,7 @@
         <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>45.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +498,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>43.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +509,7 @@
         <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,7 +520,7 @@
         <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +531,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +542,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +553,7 @@
         <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +564,7 @@
         <v>63</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,7 +575,7 @@
         <v>64</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,7 +586,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,7 +597,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,7 +608,7 @@
         <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +619,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,7 +630,7 @@
         <v>69</v>
       </c>
       <c r="C19" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,7 +641,7 @@
         <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,7 +652,7 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -675,7 +663,7 @@
         <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -686,7 +674,7 @@
         <v>73</v>
       </c>
       <c r="C23" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -697,7 +685,7 @@
         <v>74</v>
       </c>
       <c r="C24" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -708,7 +696,7 @@
         <v>75</v>
       </c>
       <c r="C25" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -719,7 +707,7 @@
         <v>76</v>
       </c>
       <c r="C26" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -730,7 +718,7 @@
         <v>77</v>
       </c>
       <c r="C27" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -741,7 +729,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -752,7 +740,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -763,7 +751,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -774,7 +762,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -785,7 +773,7 @@
         <v>82</v>
       </c>
       <c r="C32" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -796,7 +784,7 @@
         <v>83</v>
       </c>
       <c r="C33" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -807,7 +795,7 @@
         <v>84</v>
       </c>
       <c r="C34" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -818,7 +806,7 @@
         <v>85</v>
       </c>
       <c r="C35" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -829,7 +817,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -840,7 +828,7 @@
         <v>87</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -851,7 +839,7 @@
         <v>88</v>
       </c>
       <c r="C38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -862,7 +850,7 @@
         <v>89</v>
       </c>
       <c r="C39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -873,7 +861,7 @@
         <v>90</v>
       </c>
       <c r="C40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -884,7 +872,7 @@
         <v>91</v>
       </c>
       <c r="C41" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -895,7 +883,7 @@
         <v>92</v>
       </c>
       <c r="C42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -906,7 +894,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -935,66 +923,66 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.0</v>
+      <c r="B46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.0</v>
+      <c r="B47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.0</v>
+      <c r="B48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.0</v>
+      <c r="B49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.0</v>
+      <c r="B50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1.0</v>
+      <c r="B51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -1021,502 +1009,502 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>96.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C3" t="n">
-        <v>52.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C6" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C23" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.0</v>
+        <v>46</v>
+      </c>
+      <c r="B24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.0</v>
+        <v>47</v>
+      </c>
+      <c r="B25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3.0</v>
+        <v>48</v>
+      </c>
+      <c r="B26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.0</v>
+        <v>49</v>
+      </c>
+      <c r="B27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.0</v>
+        <v>50</v>
+      </c>
+      <c r="B28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.0</v>
+        <v>51</v>
+      </c>
+      <c r="B29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.0</v>
+        <v>96</v>
+      </c>
+      <c r="B30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.0</v>
+        <v>97</v>
+      </c>
+      <c r="B31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.0</v>
+        <v>98</v>
+      </c>
+      <c r="B32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.0</v>
+        <v>99</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.0</v>
+        <v>100</v>
+      </c>
+      <c r="B34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="n">
-        <v>1.0</v>
+      <c r="B35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.0</v>
+        <v>102</v>
+      </c>
+      <c r="B36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.0</v>
+        <v>103</v>
+      </c>
+      <c r="B37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.0</v>
+        <v>104</v>
+      </c>
+      <c r="B38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.0</v>
+        <v>105</v>
+      </c>
+      <c r="B39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.0</v>
+        <v>106</v>
+      </c>
+      <c r="B40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C40" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.0</v>
+        <v>107</v>
+      </c>
+      <c r="B41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C41" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.0</v>
+        <v>108</v>
+      </c>
+      <c r="B42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C42" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.0</v>
+        <v>109</v>
+      </c>
+      <c r="B43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C43" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.0</v>
+        <v>110</v>
+      </c>
+      <c r="B44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.0</v>
+        <v>111</v>
+      </c>
+      <c r="B45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.0</v>
+        <v>112</v>
+      </c>
+      <c r="B46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B47" t="e">
         <v>#N/A</v>
@@ -1527,7 +1515,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B48" t="e">
         <v>#N/A</v>
@@ -1538,7 +1526,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B49" t="e">
         <v>#N/A</v>
@@ -1549,7 +1537,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B50" t="e">
         <v>#N/A</v>
@@ -1560,7 +1548,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B51" t="e">
         <v>#N/A</v>
